--- a/src/main/resources/static/webResources/templates/materiel.xlsx
+++ b/src/main/resources/static/webResources/templates/materiel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>预警周期-年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,14 @@
   </si>
   <si>
     <t>检测周期-日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,13 +108,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,79 +423,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="1" customWidth="1"/>
+    <col min="1" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>42988</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>20</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>2</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>10</v>
       </c>
     </row>

--- a/src/main/resources/static/webResources/templates/materiel.xlsx
+++ b/src/main/resources/static/webResources/templates/materiel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>预警周期-年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>abc123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-09-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,17 +112,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -425,12 +430,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="1" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21" style="4" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="1" customWidth="1"/>
@@ -440,16 +448,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -472,17 +480,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
-        <v>42988</v>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
